--- a/Docs/test1.xlsx
+++ b/Docs/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,11 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -581,13 +585,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2378858632.4404702</v>
+      </c>
+      <c r="C1">
+        <f>POWER(B1,2)</f>
+        <v>5.6589683931365437E+18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2546340798.0274501</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C9" si="0">POWER(B2,2)</f>
+        <v>6.483851459699071E+18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2671753018.757</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>7.1382641932371425E+18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2894561484.2773299</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>8.3784861862617795E+18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2918228302.5657401</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.516056425895721E+18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3089562004.6875601</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>9.5453933808090153E+18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3090682997.1241899</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9.5523213887125647E+18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3109507391.0303402</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9.6690362148723139E+18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3123623195.41642</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9.757021866943486E+18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3125181049.6946502</v>
+      </c>
+      <c r="C10">
+        <f>POWER(B10,2)</f>
+        <v>9.7667565933705564E+18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/test1.xlsx
+++ b/Docs/test1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullPrecision="0"/>
 </workbook>
 </file>
 
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +429,7 @@
       </c>
       <c r="H2">
         <f>SQRT(G2)</f>
-        <v>12.767145334803704</v>
+        <v>12.767145334803701</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -454,7 +457,7 @@
       </c>
       <c r="H3">
         <f>SQRT(G3)</f>
-        <v>2.6457513110645907</v>
+        <v>2.6457513110645898</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -482,7 +485,7 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H6" si="0">SQRT(G4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.4142135623731</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -510,7 +513,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.4142135623730951</v>
+        <v>1.4142135623731</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -538,7 +541,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>6.8556546004010439</v>
+        <v>6.8556546004010404</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -587,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
       </c>
       <c r="C1">
         <f>POWER(B1,2)</f>
-        <v>5.6589683931365437E+18</v>
+        <v>5.6589683931365396E+18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,7 +621,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C9" si="0">POWER(B2,2)</f>
-        <v>6.483851459699071E+18</v>
+        <v>6.48385145969907E+18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +633,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>7.1382641932371425E+18</v>
+        <v>7.1382641932371405E+18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +645,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>8.3784861862617795E+18</v>
+        <v>8.3784861862617805E+18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,7 +657,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>8.516056425895721E+18</v>
+        <v>8.5160564258957199E+18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,7 +669,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>9.5453933808090153E+18</v>
+        <v>9.5453933808090194E+18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +681,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>9.5523213887125647E+18</v>
+        <v>9.5523213887125606E+18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +693,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>9.6690362148723139E+18</v>
+        <v>9.6690362148723098E+18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +705,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>9.757021866943486E+18</v>
+        <v>9.75702186694349E+18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +717,7 @@
       </c>
       <c r="C10">
         <f>POWER(B10,2)</f>
-        <v>9.7667565933705564E+18</v>
+        <v>9.7667565933705605E+18</v>
       </c>
     </row>
   </sheetData>
@@ -725,12 +728,300 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>587346851</v>
+      </c>
+      <c r="B2">
+        <v>1375896618</v>
+      </c>
+      <c r="C2">
+        <v>1091532660</v>
+      </c>
+      <c r="D2">
+        <v>1049174902</v>
+      </c>
+      <c r="E2">
+        <v>572047254</v>
+      </c>
+      <c r="F2">
+        <v>385621721</v>
+      </c>
+      <c r="G2">
+        <v>1657189250</v>
+      </c>
+      <c r="H2">
+        <v>213706809</v>
+      </c>
+      <c r="I2">
+        <v>585249083</v>
+      </c>
+      <c r="J2">
+        <v>1962287530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A1-A2</f>
+        <v>-587346850</v>
+      </c>
+      <c r="B3">
+        <f>B1-B2</f>
+        <v>-1375896616</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:J3" si="0">C1-C2</f>
+        <v>-1091532658</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-1049174900</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>-572047251</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-385621717</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-1657189245</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>-213706804</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>-585249078</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>-1962287524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f>A3*A3</f>
+        <v>3.4497632220492198E+17</v>
+      </c>
+      <c r="B4" s="5">
+        <f>POWER(B3, 2)</f>
+        <v>1.8930914979202501E+18</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:J4" si="1">POWER(C3, 2)</f>
+        <v>1.1914435434805499E+18</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.10076797079001E+18</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2723805737665702E+17</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.48704108622028E+17</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7462761937436698E+18</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>4.56705980758944E+16</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4251648329984998E+17</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8505723268460498E+18</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM(A4:J4)</f>
+        <v>1.19912571023599E+19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2671753018.757</v>
+      </c>
+      <c r="C7" s="3">
+        <f>POWER(B7,2)</f>
+        <v>7.1382641932371405E+18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3252129437.44803</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:C16" si="2">POWER(B8,2)</f>
+        <v>1.0576345877916E+19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3424195240.61727</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1725113045866E+19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3462839456.6251302</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.19912571023598E+19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3577151753.3151498</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.27960146662457E+19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3746510094.0608602</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4036337884899899E+19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3941785051.40452</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5537669391476099E+19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4107660439.7937598</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6872874288646699E+19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4325266764.1720896</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8707932581251699E+19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4401994956.3000002</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9377559595290599E+19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/test1.xlsx
+++ b/Docs/test1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dakota\Documents\Github\Thesis\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullPrecision="0"/>
+  <calcPr calcId="152511" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ref</t>
   </si>
@@ -29,13 +34,20 @@
   <si>
     <t>k=3</t>
   </si>
+  <si>
+    <t>10000 data set</t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -66,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -75,6 +87,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,6 +97,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,10 +744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1036,94 @@
         <v>1.9377559595290599E+19</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6736</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2.1802E+19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2771</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2.21423E+19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9393</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2.24469E+19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4278</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2.28697E+19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6494</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2.30881E+19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9560</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2.34592E+19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8839</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2.36409E+19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2262</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.43383E+19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5411</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2.43517E+19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4373</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2.43994E+19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Docs/test1.xlsx
+++ b/Docs/test1.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ref</t>
   </si>
@@ -39,6 +40,9 @@
   </si>
   <si>
     <t>answers</t>
+  </si>
+  <si>
+    <t>50000 data set</t>
   </si>
 </sst>
 </file>
@@ -612,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -744,10 +748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,10 +762,10 @@
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1124,8 +1128,942 @@
         <v>2.43994E+19</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>48394</v>
+      </c>
+      <c r="B33" s="3">
+        <v>23394</v>
+      </c>
+      <c r="C33" s="3">
+        <f>A33-B33</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40097</v>
+      </c>
+      <c r="B34" s="3">
+        <v>15097</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:C42" si="3">A34-B34</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25701</v>
+      </c>
+      <c r="B35" s="3">
+        <v>701</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3018</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3018</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16511</v>
+      </c>
+      <c r="B37" s="3">
+        <v>16511</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24116</v>
+      </c>
+      <c r="B38" s="3">
+        <v>24116</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>27482</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2482</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35514</v>
+      </c>
+      <c r="B40" s="3">
+        <v>10514</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21016</v>
+      </c>
+      <c r="B41" s="3">
+        <v>21016</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>13906</v>
+      </c>
+      <c r="B42" s="3">
+        <v>13906</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CA3"/>
+  <sheetViews>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="CC12" sqref="CC12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>502743994</v>
+      </c>
+      <c r="B1">
+        <v>989315156</v>
+      </c>
+      <c r="C1">
+        <v>1922830047</v>
+      </c>
+      <c r="D1">
+        <v>1230453950</v>
+      </c>
+      <c r="E1">
+        <v>1941575544</v>
+      </c>
+      <c r="F1">
+        <v>1297798968</v>
+      </c>
+      <c r="G1">
+        <v>772702866</v>
+      </c>
+      <c r="H1">
+        <v>2006779066</v>
+      </c>
+      <c r="I1">
+        <v>1020056343</v>
+      </c>
+      <c r="J1">
+        <v>197805025</v>
+      </c>
+      <c r="K1">
+        <v>1182326881</v>
+      </c>
+      <c r="L1">
+        <v>371688911</v>
+      </c>
+      <c r="M1">
+        <v>313199031</v>
+      </c>
+      <c r="N1">
+        <v>55618633</v>
+      </c>
+      <c r="O1">
+        <v>527049043</v>
+      </c>
+      <c r="P1">
+        <v>1640898012</v>
+      </c>
+      <c r="Q1">
+        <v>2145069991</v>
+      </c>
+      <c r="R1">
+        <v>1114592749</v>
+      </c>
+      <c r="S1">
+        <v>299588248</v>
+      </c>
+      <c r="T1">
+        <v>922150663</v>
+      </c>
+      <c r="U1">
+        <v>1470232657</v>
+      </c>
+      <c r="V1">
+        <v>1860663300</v>
+      </c>
+      <c r="W1">
+        <v>811112581</v>
+      </c>
+      <c r="X1">
+        <v>387478140</v>
+      </c>
+      <c r="Y1">
+        <v>1456000387</v>
+      </c>
+      <c r="Z1">
+        <v>733040532</v>
+      </c>
+      <c r="AA1">
+        <v>2109187914</v>
+      </c>
+      <c r="AB1">
+        <v>1697999638</v>
+      </c>
+      <c r="AC1">
+        <v>356619855</v>
+      </c>
+      <c r="AD1">
+        <v>1690208194</v>
+      </c>
+      <c r="AE1">
+        <v>439193767</v>
+      </c>
+      <c r="AF1">
+        <v>249322606</v>
+      </c>
+      <c r="AG1">
+        <v>1843689601</v>
+      </c>
+      <c r="AH1">
+        <v>2141958438</v>
+      </c>
+      <c r="AI1">
+        <v>2002846586</v>
+      </c>
+      <c r="AJ1">
+        <v>445459595</v>
+      </c>
+      <c r="AK1">
+        <v>1852559803</v>
+      </c>
+      <c r="AL1">
+        <v>1081176172</v>
+      </c>
+      <c r="AM1">
+        <v>728959778</v>
+      </c>
+      <c r="AN1">
+        <v>1157464663</v>
+      </c>
+      <c r="AO1">
+        <v>1162137019</v>
+      </c>
+      <c r="AP1">
+        <v>1132680276</v>
+      </c>
+      <c r="AQ1">
+        <v>2042910940</v>
+      </c>
+      <c r="AR1">
+        <v>501167229</v>
+      </c>
+      <c r="AS1">
+        <v>2011006506</v>
+      </c>
+      <c r="AT1">
+        <v>989839698</v>
+      </c>
+      <c r="AU1">
+        <v>175893624</v>
+      </c>
+      <c r="AV1">
+        <v>1202230143</v>
+      </c>
+      <c r="AW1">
+        <v>1921822504</v>
+      </c>
+      <c r="AX1">
+        <v>1061646650</v>
+      </c>
+      <c r="AY1">
+        <v>1867649977</v>
+      </c>
+      <c r="AZ1">
+        <v>1749814960</v>
+      </c>
+      <c r="BA1">
+        <v>2058714355</v>
+      </c>
+      <c r="BB1">
+        <v>1733944255</v>
+      </c>
+      <c r="BC1">
+        <v>256393779</v>
+      </c>
+      <c r="BD1">
+        <v>1885473681</v>
+      </c>
+      <c r="BE1">
+        <v>1996801113</v>
+      </c>
+      <c r="BF1">
+        <v>1394975212</v>
+      </c>
+      <c r="BG1">
+        <v>903392825</v>
+      </c>
+      <c r="BH1">
+        <v>1641119578</v>
+      </c>
+      <c r="BI1">
+        <v>1228485298</v>
+      </c>
+      <c r="BJ1">
+        <v>919842371</v>
+      </c>
+      <c r="BK1">
+        <v>1328008762</v>
+      </c>
+      <c r="BL1">
+        <v>877491158</v>
+      </c>
+      <c r="BM1">
+        <v>2097785009</v>
+      </c>
+      <c r="BN1">
+        <v>2053298655</v>
+      </c>
+      <c r="BO1">
+        <v>1137822943</v>
+      </c>
+      <c r="BP1">
+        <v>500327996</v>
+      </c>
+      <c r="BQ1">
+        <v>1348340428</v>
+      </c>
+      <c r="BR1">
+        <v>1978689384</v>
+      </c>
+      <c r="BS1">
+        <v>1293718023</v>
+      </c>
+      <c r="BT1">
+        <v>1143289900</v>
+      </c>
+      <c r="BU1">
+        <v>1418926332</v>
+      </c>
+      <c r="BV1">
+        <v>1704532295</v>
+      </c>
+      <c r="BW1">
+        <v>516165413</v>
+      </c>
+      <c r="BX1">
+        <v>783399786</v>
+      </c>
+      <c r="BY1">
+        <v>1710913129</v>
+      </c>
+      <c r="BZ1">
+        <v>1203038514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1932443122</v>
+      </c>
+      <c r="B2">
+        <v>1513971634</v>
+      </c>
+      <c r="C2">
+        <v>2132651939</v>
+      </c>
+      <c r="D2">
+        <v>1063687831</v>
+      </c>
+      <c r="E2">
+        <v>1125251397</v>
+      </c>
+      <c r="F2">
+        <v>1498740008</v>
+      </c>
+      <c r="G2">
+        <v>2134793089</v>
+      </c>
+      <c r="H2">
+        <v>1993253334</v>
+      </c>
+      <c r="I2">
+        <v>1263578645</v>
+      </c>
+      <c r="J2">
+        <v>1459048549</v>
+      </c>
+      <c r="K2">
+        <v>817619941</v>
+      </c>
+      <c r="L2">
+        <v>1475539315</v>
+      </c>
+      <c r="M2">
+        <v>916529627</v>
+      </c>
+      <c r="N2">
+        <v>1278146204</v>
+      </c>
+      <c r="O2">
+        <v>369933148</v>
+      </c>
+      <c r="P2">
+        <v>1395347773</v>
+      </c>
+      <c r="Q2">
+        <v>223916267</v>
+      </c>
+      <c r="R2">
+        <v>778037361</v>
+      </c>
+      <c r="S2">
+        <v>2001544374</v>
+      </c>
+      <c r="T2">
+        <v>1872866213</v>
+      </c>
+      <c r="U2">
+        <v>1616484367</v>
+      </c>
+      <c r="V2">
+        <v>1801983988</v>
+      </c>
+      <c r="W2">
+        <v>1547634424</v>
+      </c>
+      <c r="X2">
+        <v>1195253467</v>
+      </c>
+      <c r="Y2">
+        <v>586242498</v>
+      </c>
+      <c r="Z2">
+        <v>665991976</v>
+      </c>
+      <c r="AA2">
+        <v>910635550</v>
+      </c>
+      <c r="AB2">
+        <v>190883375</v>
+      </c>
+      <c r="AC2">
+        <v>303099265</v>
+      </c>
+      <c r="AD2">
+        <v>262249329</v>
+      </c>
+      <c r="AE2">
+        <v>1392817925</v>
+      </c>
+      <c r="AF2">
+        <v>1291560417</v>
+      </c>
+      <c r="AG2">
+        <v>1912009405</v>
+      </c>
+      <c r="AH2">
+        <v>707438996</v>
+      </c>
+      <c r="AI2">
+        <v>923781397</v>
+      </c>
+      <c r="AJ2">
+        <v>2060204294</v>
+      </c>
+      <c r="AK2">
+        <v>183014180</v>
+      </c>
+      <c r="AL2">
+        <v>2039876589</v>
+      </c>
+      <c r="AM2">
+        <v>829580552</v>
+      </c>
+      <c r="AN2">
+        <v>1792574310</v>
+      </c>
+      <c r="AO2">
+        <v>552250891</v>
+      </c>
+      <c r="AP2">
+        <v>956525743</v>
+      </c>
+      <c r="AQ2">
+        <v>1956759322</v>
+      </c>
+      <c r="AR2">
+        <v>812592311</v>
+      </c>
+      <c r="AS2">
+        <v>2117015317</v>
+      </c>
+      <c r="AT2">
+        <v>807838289</v>
+      </c>
+      <c r="AU2">
+        <v>1259694734</v>
+      </c>
+      <c r="AV2">
+        <v>1140859384</v>
+      </c>
+      <c r="AW2">
+        <v>1751060207</v>
+      </c>
+      <c r="AX2">
+        <v>1788459622</v>
+      </c>
+      <c r="AY2">
+        <v>170796265</v>
+      </c>
+      <c r="AZ2">
+        <v>1545343077</v>
+      </c>
+      <c r="BA2">
+        <v>1468848204</v>
+      </c>
+      <c r="BB2">
+        <v>624580815</v>
+      </c>
+      <c r="BC2">
+        <v>2083094265</v>
+      </c>
+      <c r="BD2">
+        <v>1185122373</v>
+      </c>
+      <c r="BE2">
+        <v>1116734948</v>
+      </c>
+      <c r="BF2">
+        <v>1557832175</v>
+      </c>
+      <c r="BG2">
+        <v>617582966</v>
+      </c>
+      <c r="BH2">
+        <v>278647636</v>
+      </c>
+      <c r="BI2">
+        <v>95723167</v>
+      </c>
+      <c r="BJ2">
+        <v>1803671328</v>
+      </c>
+      <c r="BK2">
+        <v>1002146120</v>
+      </c>
+      <c r="BL2">
+        <v>1715832845</v>
+      </c>
+      <c r="BM2">
+        <v>1847705696</v>
+      </c>
+      <c r="BN2">
+        <v>293717833</v>
+      </c>
+      <c r="BO2">
+        <v>49629466</v>
+      </c>
+      <c r="BP2">
+        <v>140181915</v>
+      </c>
+      <c r="BQ2">
+        <v>1881480374</v>
+      </c>
+      <c r="BR2">
+        <v>1366522826</v>
+      </c>
+      <c r="BS2">
+        <v>124687030</v>
+      </c>
+      <c r="BT2">
+        <v>979080036</v>
+      </c>
+      <c r="BU2">
+        <v>168743395</v>
+      </c>
+      <c r="BV2">
+        <v>479868544</v>
+      </c>
+      <c r="BW2">
+        <v>1812682616</v>
+      </c>
+      <c r="BX2">
+        <v>40390296</v>
+      </c>
+      <c r="BY2">
+        <v>70177211</v>
+      </c>
+      <c r="BZ2">
+        <v>1373137045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>POWER(A1-A2, 2)</f>
+        <v>2.0440395966039601E+18</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:BM3" si="0">POWER(B1-B2, 2)</f>
+        <v>2.75264419907364E+17</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>4.4025226362459696E+16</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2.78109384463222E+16</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6.6638511297527795E+17</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>4.03773015562816E+16</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1.85528977559219E+18</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>182945426135824</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>5.93031115713792E+16</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.5907352268319401E+18</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.33011152084164E+17</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.2184857144109599E+18</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>3.6400780806971501E+17</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>1.4945736618551601E+18</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>2.4685404461651E+16</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>6.0294919872957104E+16</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>3.6908316312390702E+18</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1.1326952919183101E+17</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>2.89665465482893E+18</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>9.0386005701180198E+17</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>2.13895626779241E+16</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>3443261656793340</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>5.4246442521611699E+17</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>6.5250097890995699E+17</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>7.5647878547773594E+17</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>4495508861685140</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>1.4365277692499899E+18</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>2.2713994301990899E+18</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>2864453553948100</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>2.0390665201320901E+18</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>9.0939903472120896E+17</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>1.08625965467807E+18</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>4667595618598420</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>2.05784602947599E+18</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>1.1643816821116101E+18</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>2.6074004429485998E+18</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>2.7873825872784599E+18</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>9.1910648955597402E+17</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>1.01245401603591E+16</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>4.0336426371246502E+17</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>3.71961089126832E+17</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>3.10304194964481E+16</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>7422101284017920</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>9.6985581698706704E+16</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
+        <v>1.12378680096337E+16</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="0"/>
+        <v>3.31245128779853E+16</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="0"/>
+        <v>1.1746248460372301E+18</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>3766370060236080</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>2.91597620767162E+16</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>5.2825709626747302E+17</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>2.8793125199281802E+18</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>4.1808750937565696E+16</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>3.4794207609555501E+17</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>1.23068724200863E+18</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>3.33683466555264E+18</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>4.9049195461731098E+17</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>7.7451645477780698E+17</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="0"/>
+        <v>2.65223903975834E+16</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="0"/>
+        <v>8.1687275501599904E+16</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="0"/>
+        <v>1.85632979273725E+18</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="0"/>
+        <v>1.28315004542766E+18</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="0"/>
+        <v>7.8115362523170803E+17</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="0"/>
+        <v>1.0618646145122E+17</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="0"/>
+        <v>7.0281678416200602E+17</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="0"/>
+        <v>6.2539662790552E+16</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" ref="BN3:BZ3" si="1">POWER(BN1-BN2, 2)</f>
+        <v>3.0961246691501998E+18</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" si="1"/>
+        <v>1.1841650433853499E+18</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" si="1"/>
+        <v>1.2970519965965901E+17</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" si="1"/>
+        <v>2.8423820202088301E+17</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" si="1"/>
+        <v>3.7474789473356698E+17</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" si="1"/>
+        <v>1.36663346259457E+18</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" si="1"/>
+        <v>2.69648794348985E+16</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" si="1"/>
+        <v>1.56295737596595E+18</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" si="1"/>
+        <v>1.4998013030133901E+18</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" si="1"/>
+        <v>1.6809568576749399E+18</v>
+      </c>
+      <c r="BX3">
+        <f t="shared" si="1"/>
+        <v>5.5206310223006003E+17</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" si="1"/>
+        <v>2.6920143526153001E+18</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" si="1"/>
+        <v>2.8933510248358E+16</v>
+      </c>
+      <c r="CA3">
+        <f>SUM(A3:BZ3)</f>
+        <v>6.7952506405775901E+19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/test1.xlsx
+++ b/Docs/test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ref</t>
   </si>
@@ -44,6 +44,12 @@
   <si>
     <t>50000 data set</t>
   </si>
+  <si>
+    <t>100000 Data Set</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
 </sst>
 </file>
 
@@ -62,12 +68,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -92,6 +110,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,120 +1157,158 @@
       <c r="A33">
         <v>48394</v>
       </c>
-      <c r="B33" s="3">
-        <v>23394</v>
-      </c>
-      <c r="C33" s="3">
-        <f>A33-B33</f>
-        <v>25000</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40097</v>
       </c>
-      <c r="B34" s="3">
-        <v>15097</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" ref="C34:C42" si="3">A34-B34</f>
-        <v>25000</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25701</v>
       </c>
-      <c r="B35" s="3">
-        <v>701</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3018</v>
       </c>
-      <c r="B36" s="3">
-        <v>3018</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16511</v>
       </c>
-      <c r="B37" s="3">
-        <v>16511</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24116</v>
       </c>
-      <c r="B38" s="3">
-        <v>24116</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>27482</v>
       </c>
-      <c r="B39" s="3">
-        <v>2482</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35514</v>
       </c>
-      <c r="B40" s="3">
-        <v>10514</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21016</v>
       </c>
-      <c r="B41" s="3">
-        <v>21016</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13906</v>
       </c>
-      <c r="B42" s="3">
-        <v>13906</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>62630</v>
+      </c>
+      <c r="B46" s="8">
+        <v>90063</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>55621</v>
+      </c>
+      <c r="B47" s="7">
+        <v>62630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>73861</v>
+      </c>
+      <c r="B48" s="7">
+        <v>55621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>62340</v>
+      </c>
+      <c r="B49" s="7">
+        <v>73861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>58463</v>
+      </c>
+      <c r="B50" s="7">
+        <v>62340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>42731</v>
+      </c>
+      <c r="B51" s="7">
+        <v>58463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>20486</v>
+      </c>
+      <c r="B52" s="8">
+        <v>84712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>4059</v>
+      </c>
+      <c r="B53" s="7">
+        <v>20486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10151</v>
+      </c>
+      <c r="B54" s="8">
+        <v>96659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>92395</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4059</v>
       </c>
     </row>
   </sheetData>
@@ -1261,809 +1319,881 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA3"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="CC12" sqref="CC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CA5" sqref="CA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>502743994</v>
-      </c>
-      <c r="B1">
-        <v>989315156</v>
-      </c>
-      <c r="C1">
-        <v>1922830047</v>
-      </c>
-      <c r="D1">
-        <v>1230453950</v>
-      </c>
-      <c r="E1">
-        <v>1941575544</v>
-      </c>
-      <c r="F1">
-        <v>1297798968</v>
-      </c>
-      <c r="G1">
-        <v>772702866</v>
-      </c>
-      <c r="H1">
-        <v>2006779066</v>
-      </c>
-      <c r="I1">
-        <v>1020056343</v>
-      </c>
-      <c r="J1">
-        <v>197805025</v>
-      </c>
-      <c r="K1">
-        <v>1182326881</v>
-      </c>
-      <c r="L1">
-        <v>371688911</v>
-      </c>
-      <c r="M1">
-        <v>313199031</v>
-      </c>
-      <c r="N1">
-        <v>55618633</v>
-      </c>
-      <c r="O1">
-        <v>527049043</v>
-      </c>
-      <c r="P1">
-        <v>1640898012</v>
-      </c>
-      <c r="Q1">
-        <v>2145069991</v>
-      </c>
-      <c r="R1">
-        <v>1114592749</v>
-      </c>
-      <c r="S1">
-        <v>299588248</v>
-      </c>
-      <c r="T1">
-        <v>922150663</v>
-      </c>
-      <c r="U1">
-        <v>1470232657</v>
-      </c>
-      <c r="V1">
-        <v>1860663300</v>
-      </c>
-      <c r="W1">
-        <v>811112581</v>
-      </c>
-      <c r="X1">
-        <v>387478140</v>
-      </c>
-      <c r="Y1">
-        <v>1456000387</v>
-      </c>
-      <c r="Z1">
-        <v>733040532</v>
-      </c>
-      <c r="AA1">
-        <v>2109187914</v>
-      </c>
-      <c r="AB1">
-        <v>1697999638</v>
-      </c>
-      <c r="AC1">
-        <v>356619855</v>
-      </c>
-      <c r="AD1">
-        <v>1690208194</v>
-      </c>
-      <c r="AE1">
-        <v>439193767</v>
-      </c>
-      <c r="AF1">
-        <v>249322606</v>
-      </c>
-      <c r="AG1">
-        <v>1843689601</v>
-      </c>
-      <c r="AH1">
-        <v>2141958438</v>
-      </c>
-      <c r="AI1">
-        <v>2002846586</v>
-      </c>
-      <c r="AJ1">
-        <v>445459595</v>
-      </c>
-      <c r="AK1">
-        <v>1852559803</v>
-      </c>
-      <c r="AL1">
-        <v>1081176172</v>
-      </c>
-      <c r="AM1">
-        <v>728959778</v>
-      </c>
-      <c r="AN1">
-        <v>1157464663</v>
-      </c>
-      <c r="AO1">
-        <v>1162137019</v>
-      </c>
-      <c r="AP1">
-        <v>1132680276</v>
-      </c>
-      <c r="AQ1">
-        <v>2042910940</v>
-      </c>
-      <c r="AR1">
-        <v>501167229</v>
-      </c>
-      <c r="AS1">
-        <v>2011006506</v>
-      </c>
-      <c r="AT1">
-        <v>989839698</v>
-      </c>
-      <c r="AU1">
-        <v>175893624</v>
-      </c>
-      <c r="AV1">
-        <v>1202230143</v>
-      </c>
-      <c r="AW1">
-        <v>1921822504</v>
-      </c>
-      <c r="AX1">
-        <v>1061646650</v>
-      </c>
-      <c r="AY1">
-        <v>1867649977</v>
-      </c>
-      <c r="AZ1">
-        <v>1749814960</v>
-      </c>
-      <c r="BA1">
-        <v>2058714355</v>
-      </c>
-      <c r="BB1">
-        <v>1733944255</v>
-      </c>
-      <c r="BC1">
-        <v>256393779</v>
-      </c>
-      <c r="BD1">
-        <v>1885473681</v>
-      </c>
-      <c r="BE1">
-        <v>1996801113</v>
-      </c>
-      <c r="BF1">
-        <v>1394975212</v>
-      </c>
-      <c r="BG1">
-        <v>903392825</v>
-      </c>
-      <c r="BH1">
-        <v>1641119578</v>
-      </c>
-      <c r="BI1">
-        <v>1228485298</v>
-      </c>
-      <c r="BJ1">
-        <v>919842371</v>
-      </c>
-      <c r="BK1">
-        <v>1328008762</v>
-      </c>
-      <c r="BL1">
-        <v>877491158</v>
-      </c>
-      <c r="BM1">
-        <v>2097785009</v>
-      </c>
-      <c r="BN1">
-        <v>2053298655</v>
-      </c>
-      <c r="BO1">
-        <v>1137822943</v>
-      </c>
-      <c r="BP1">
-        <v>500327996</v>
-      </c>
-      <c r="BQ1">
-        <v>1348340428</v>
-      </c>
-      <c r="BR1">
-        <v>1978689384</v>
-      </c>
-      <c r="BS1">
-        <v>1293718023</v>
-      </c>
-      <c r="BT1">
-        <v>1143289900</v>
-      </c>
-      <c r="BU1">
-        <v>1418926332</v>
-      </c>
-      <c r="BV1">
-        <v>1704532295</v>
-      </c>
-      <c r="BW1">
-        <v>516165413</v>
-      </c>
-      <c r="BX1">
-        <v>783399786</v>
-      </c>
-      <c r="BY1">
-        <v>1710913129</v>
-      </c>
-      <c r="BZ1">
-        <v>1203038514</v>
-      </c>
+      <c r="A1" s="3">
+        <v>1451549932</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1770838325</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1604508646</v>
+      </c>
+      <c r="D1" s="3">
+        <v>334051629</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1075877400</v>
+      </c>
+      <c r="F1" s="3">
+        <v>645407219</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1336089580</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1365022110</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1376841175</v>
+      </c>
+      <c r="J1" s="3">
+        <v>1003837215</v>
+      </c>
+      <c r="K1" s="3">
+        <v>673026611</v>
+      </c>
+      <c r="L1" s="3">
+        <v>1059266594</v>
+      </c>
+      <c r="M1" s="3">
+        <v>414996829</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2070354417</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2061477055</v>
+      </c>
+      <c r="P1" s="3">
+        <v>1172542285</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>530085303</v>
+      </c>
+      <c r="R1" s="3">
+        <v>471821353</v>
+      </c>
+      <c r="S1" s="3">
+        <v>1652652406</v>
+      </c>
+      <c r="T1" s="3">
+        <v>1219804185</v>
+      </c>
+      <c r="U1" s="3">
+        <v>1538691691</v>
+      </c>
+      <c r="V1" s="3">
+        <v>159214677</v>
+      </c>
+      <c r="W1" s="3">
+        <v>1356656851</v>
+      </c>
+      <c r="X1" s="3">
+        <v>1067480198</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>108404442</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>1168445375</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>686166963</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2095047590</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>42958613</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>88277357</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>369770569</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>1195084539</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>195101079</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>2064631023</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>115934152</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>1169340671</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>2101852287</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>1276048482</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>382384530</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>1201805600</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>650711874</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>1267594871</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>993454941</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>476443712</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>942118041</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>288809105</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>1310243518</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>53358658</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>111239622</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>281724759</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>836900051</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>1558989561</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>1493649848</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>1204877612</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>1655071200</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>1903132144</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>1288025051</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>1946820036</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>334481730</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>1075143374</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>980296968</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>1483577561</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>1199133594</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>1531346877</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>585444092</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>1083065405</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>359057292</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>934842929</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>728558700</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>1805974391</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>1648780915</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>1736961135</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>1778484438</v>
+      </c>
+      <c r="BV1" s="3">
+        <v>1334796251</v>
+      </c>
+      <c r="BW1" s="3">
+        <v>1912259383</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>1224984431</v>
+      </c>
+      <c r="BY1" s="3">
+        <v>2098304758</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>317350846</v>
+      </c>
+      <c r="CA1" s="3"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1932443122</v>
-      </c>
-      <c r="B2">
-        <v>1513971634</v>
-      </c>
-      <c r="C2">
-        <v>2132651939</v>
-      </c>
-      <c r="D2">
-        <v>1063687831</v>
-      </c>
-      <c r="E2">
-        <v>1125251397</v>
-      </c>
-      <c r="F2">
-        <v>1498740008</v>
-      </c>
-      <c r="G2">
-        <v>2134793089</v>
-      </c>
-      <c r="H2">
-        <v>1993253334</v>
-      </c>
-      <c r="I2">
-        <v>1263578645</v>
-      </c>
-      <c r="J2">
-        <v>1459048549</v>
-      </c>
-      <c r="K2">
-        <v>817619941</v>
-      </c>
-      <c r="L2">
-        <v>1475539315</v>
-      </c>
-      <c r="M2">
-        <v>916529627</v>
-      </c>
-      <c r="N2">
-        <v>1278146204</v>
-      </c>
-      <c r="O2">
-        <v>369933148</v>
-      </c>
-      <c r="P2">
-        <v>1395347773</v>
-      </c>
-      <c r="Q2">
-        <v>223916267</v>
-      </c>
-      <c r="R2">
-        <v>778037361</v>
-      </c>
-      <c r="S2">
-        <v>2001544374</v>
-      </c>
-      <c r="T2">
-        <v>1872866213</v>
-      </c>
-      <c r="U2">
-        <v>1616484367</v>
-      </c>
-      <c r="V2">
-        <v>1801983988</v>
-      </c>
-      <c r="W2">
-        <v>1547634424</v>
-      </c>
-      <c r="X2">
-        <v>1195253467</v>
-      </c>
-      <c r="Y2">
-        <v>586242498</v>
-      </c>
-      <c r="Z2">
-        <v>665991976</v>
-      </c>
-      <c r="AA2">
-        <v>910635550</v>
-      </c>
-      <c r="AB2">
-        <v>190883375</v>
-      </c>
-      <c r="AC2">
-        <v>303099265</v>
-      </c>
-      <c r="AD2">
-        <v>262249329</v>
-      </c>
-      <c r="AE2">
-        <v>1392817925</v>
-      </c>
-      <c r="AF2">
-        <v>1291560417</v>
-      </c>
-      <c r="AG2">
-        <v>1912009405</v>
-      </c>
-      <c r="AH2">
-        <v>707438996</v>
-      </c>
-      <c r="AI2">
-        <v>923781397</v>
-      </c>
-      <c r="AJ2">
-        <v>2060204294</v>
-      </c>
-      <c r="AK2">
-        <v>183014180</v>
-      </c>
-      <c r="AL2">
-        <v>2039876589</v>
-      </c>
-      <c r="AM2">
-        <v>829580552</v>
-      </c>
-      <c r="AN2">
-        <v>1792574310</v>
-      </c>
-      <c r="AO2">
-        <v>552250891</v>
-      </c>
-      <c r="AP2">
-        <v>956525743</v>
-      </c>
-      <c r="AQ2">
-        <v>1956759322</v>
-      </c>
-      <c r="AR2">
-        <v>812592311</v>
-      </c>
-      <c r="AS2">
-        <v>2117015317</v>
-      </c>
-      <c r="AT2">
-        <v>807838289</v>
-      </c>
-      <c r="AU2">
-        <v>1259694734</v>
-      </c>
-      <c r="AV2">
-        <v>1140859384</v>
-      </c>
-      <c r="AW2">
-        <v>1751060207</v>
-      </c>
-      <c r="AX2">
-        <v>1788459622</v>
-      </c>
-      <c r="AY2">
-        <v>170796265</v>
-      </c>
-      <c r="AZ2">
-        <v>1545343077</v>
-      </c>
-      <c r="BA2">
-        <v>1468848204</v>
-      </c>
-      <c r="BB2">
-        <v>624580815</v>
-      </c>
-      <c r="BC2">
-        <v>2083094265</v>
-      </c>
-      <c r="BD2">
-        <v>1185122373</v>
-      </c>
-      <c r="BE2">
-        <v>1116734948</v>
-      </c>
-      <c r="BF2">
-        <v>1557832175</v>
-      </c>
-      <c r="BG2">
-        <v>617582966</v>
-      </c>
-      <c r="BH2">
-        <v>278647636</v>
-      </c>
-      <c r="BI2">
-        <v>95723167</v>
-      </c>
-      <c r="BJ2">
-        <v>1803671328</v>
-      </c>
-      <c r="BK2">
-        <v>1002146120</v>
-      </c>
-      <c r="BL2">
-        <v>1715832845</v>
-      </c>
-      <c r="BM2">
-        <v>1847705696</v>
-      </c>
-      <c r="BN2">
-        <v>293717833</v>
-      </c>
-      <c r="BO2">
-        <v>49629466</v>
-      </c>
-      <c r="BP2">
-        <v>140181915</v>
-      </c>
-      <c r="BQ2">
-        <v>1881480374</v>
-      </c>
-      <c r="BR2">
-        <v>1366522826</v>
-      </c>
-      <c r="BS2">
-        <v>124687030</v>
-      </c>
-      <c r="BT2">
-        <v>979080036</v>
-      </c>
-      <c r="BU2">
-        <v>168743395</v>
-      </c>
-      <c r="BV2">
-        <v>479868544</v>
-      </c>
-      <c r="BW2">
-        <v>1812682616</v>
-      </c>
-      <c r="BX2">
-        <v>40390296</v>
-      </c>
-      <c r="BY2">
-        <v>70177211</v>
-      </c>
-      <c r="BZ2">
-        <v>1373137045</v>
-      </c>
+      <c r="A2" s="3">
+        <v>238892798</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1878063631</v>
+      </c>
+      <c r="C2" s="3">
+        <v>600583613</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2879267</v>
+      </c>
+      <c r="E2" s="3">
+        <v>818134593</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1634624404</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1963696278</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1297941568</v>
+      </c>
+      <c r="I2" s="3">
+        <v>116791532</v>
+      </c>
+      <c r="J2" s="3">
+        <v>909759970</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1205439506</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1316452492</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1976246096</v>
+      </c>
+      <c r="N2" s="3">
+        <v>91156279</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1308030682</v>
+      </c>
+      <c r="P2" s="3">
+        <v>866494210</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1743417168</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1574377965</v>
+      </c>
+      <c r="S2" s="3">
+        <v>681114881</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2106518990</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1544528147</v>
+      </c>
+      <c r="V2" s="3">
+        <v>224663251</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1337046972</v>
+      </c>
+      <c r="X2" s="3">
+        <v>855142032</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>677921640</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1116785209</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1310015323</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1528868052</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1068059513</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>828609803</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>75009680</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1033046612</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1362646175</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1617514529</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>961794495</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1689160900</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1691857255</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>301879796</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>1825680204</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>7211115</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>599258149</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>1419723812</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1357599416</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>763441844</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>700298564</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>1317834086</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>1170175847</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>408301943</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>1840123921</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>1469915728</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>713793709</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>546004304</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>1402102534</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>631986595</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>1177052073</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>509470078</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>288096896</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>2066329597</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>848014976</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>1642453223</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>635438679</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>1504479055</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>2027316299</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>874742123</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>466602888</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>1930801088</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>994688244</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>1176643257</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>795735240</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>2063876867</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>695690845</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>451637276</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>648386974</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>874207700</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>1667052765</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>240259139</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>1894093210</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>2044122572</v>
+      </c>
+      <c r="CA2" s="3"/>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <f>POWER(A1-A2, 2)</f>
-        <v>2.0440395966039601E+18</v>
-      </c>
-      <c r="B3">
+        <v>1.47053732464109E+18</v>
+      </c>
+      <c r="B3" s="3">
         <f t="shared" ref="B3:BM3" si="0">POWER(B1-B2, 2)</f>
-        <v>2.75264419907364E+17</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>4.4025226362459696E+16</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>2.78109384463222E+16</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>6.6638511297527795E+17</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>4.03773015562816E+16</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>1.85528977559219E+18</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>182945426135824</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>5.93031115713792E+16</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>1.5907352268319401E+18</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>1.33011152084164E+17</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>1.2184857144109599E+18</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>3.6400780806971501E+17</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>1.4945736618551601E+18</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>2.4685404461651E+16</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>6.0294919872957104E+16</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>3.6908316312390702E+18</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>1.1326952919183101E+17</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>2.89665465482893E+18</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>9.0386005701180198E+17</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>2.13895626779241E+16</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>3443261656793340</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>5.4246442521611699E+17</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>6.5250097890995699E+17</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>7.5647878547773594E+17</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>4495508861685140</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>1.4365277692499899E+18</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>2.2713994301990899E+18</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>2864453553948100</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>2.0390665201320901E+18</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="0"/>
-        <v>9.0939903472120896E+17</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" si="0"/>
-        <v>1.08625965467807E+18</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>4667595618598420</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>2.05784602947599E+18</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>1.1643816821116101E+18</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>2.6074004429485998E+18</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>2.7873825872784599E+18</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>9.1910648955597402E+17</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>1.01245401603591E+16</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>4.0336426371246502E+17</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>3.71961089126832E+17</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>3.10304194964481E+16</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>7422101284017920</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>9.6985581698706704E+16</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>1.12378680096337E+16</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>3.31245128779853E+16</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" si="0"/>
-        <v>1.1746248460372301E+18</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="0"/>
-        <v>3766370060236080</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" si="0"/>
-        <v>2.91597620767162E+16</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="0"/>
-        <v>5.2825709626747302E+17</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" si="0"/>
-        <v>2.8793125199281802E+18</v>
-      </c>
-      <c r="AZ3">
-        <f t="shared" si="0"/>
-        <v>4.1808750937565696E+16</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>3.4794207609555501E+17</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="0"/>
-        <v>1.23068724200863E+18</v>
-      </c>
-      <c r="BC3">
-        <f t="shared" si="0"/>
-        <v>3.33683466555264E+18</v>
-      </c>
-      <c r="BD3">
-        <f t="shared" si="0"/>
-        <v>4.9049195461731098E+17</v>
-      </c>
-      <c r="BE3">
-        <f t="shared" si="0"/>
-        <v>7.7451645477780698E+17</v>
-      </c>
-      <c r="BF3">
-        <f t="shared" si="0"/>
-        <v>2.65223903975834E+16</v>
-      </c>
-      <c r="BG3">
-        <f t="shared" si="0"/>
-        <v>8.1687275501599904E+16</v>
-      </c>
-      <c r="BH3">
-        <f t="shared" si="0"/>
-        <v>1.85632979273725E+18</v>
-      </c>
-      <c r="BI3">
-        <f t="shared" si="0"/>
-        <v>1.28315004542766E+18</v>
-      </c>
-      <c r="BJ3">
-        <f t="shared" si="0"/>
-        <v>7.8115362523170803E+17</v>
-      </c>
-      <c r="BK3">
-        <f t="shared" si="0"/>
-        <v>1.0618646145122E+17</v>
-      </c>
-      <c r="BL3">
-        <f t="shared" si="0"/>
-        <v>7.0281678416200602E+17</v>
-      </c>
-      <c r="BM3">
-        <f t="shared" si="0"/>
-        <v>6.2539662790552E+16</v>
-      </c>
-      <c r="BN3">
+        <v>1.14972662467936E+16</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.00786547188405E+18</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0967513335265901E+17</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>6.64313545602392E+16</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7855063909932403E+17</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9389016737446298E+17</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>4499799115013760</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5877251028244301E+18</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>8850528026790020</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8346349076228099E+17</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>6.61445861300664E+16</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4374992737080402E+18</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9172252694626698E+18</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6768143698685498E+17</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.36654242112056E+16</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4721742146243799E+18</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2156310826649201E+18</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4388516248312602E+17</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8626314540618803E+17</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="0"/>
+        <v>34064218639936</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="0"/>
+        <v>4283515838633480</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" si="0"/>
+        <v>384547354394641</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>4.50874967402436E+16</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2434983881777101E+17</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" si="0"/>
+        <v>2668772751147560</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8918677627468998E+17</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2055926924989299E+17</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.05083185518081E+18</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4809213060034298E+17</v>
+      </c>
+      <c r="AE3" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6883981684070304E+16</v>
+      </c>
+      <c r="AF3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.62562897864573E+16</v>
+      </c>
+      <c r="AG3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3631615511936499E+18</v>
+      </c>
+      <c r="AH3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.99913159206852E+17</v>
+      </c>
+      <c r="AI3" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1547971986007795E+17</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.70213070477612E+17</v>
+      </c>
+      <c r="AK3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6809592626468099E+17</v>
+      </c>
+      <c r="AL3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4900462878296704E+17</v>
+      </c>
+      <c r="AM3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0831024025871099E+18</v>
+      </c>
+      <c r="AN3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4270559835924201E+18</v>
+      </c>
+      <c r="AO3" s="3">
+        <f t="shared" si="0"/>
+        <v>2647485816375620</v>
+      </c>
+      <c r="AP3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.31432146897815E+16</v>
+      </c>
+      <c r="AQ3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.32601198673026E+17</v>
+      </c>
+      <c r="AR3" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2367927771489408E+16</v>
+      </c>
+      <c r="AS3" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8476659456553504E+16</v>
+      </c>
+      <c r="AT3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.05889241152205E+18</v>
+      </c>
+      <c r="AU3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.96189524593642E+16</v>
+      </c>
+      <c r="AV3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2598473556659101E+17</v>
+      </c>
+      <c r="AW3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9890409193287199E+18</v>
+      </c>
+      <c r="AX3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4117977788131599E+18</v>
+      </c>
+      <c r="AY3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5155171440621E+16</v>
+      </c>
+      <c r="AZ3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.02613913089936E+18</v>
+      </c>
+      <c r="BA3" s="3">
+        <f t="shared" si="0"/>
+        <v>8380910700614600</v>
+      </c>
+      <c r="BB3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2820411735929402E+17</v>
+      </c>
+      <c r="BC3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2850228577784198E+17</v>
+      </c>
+      <c r="BD3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.94229395420739E+18</v>
+      </c>
+      <c r="BE3" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9985631516170394E+17</v>
+      </c>
+      <c r="BF3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.42825351704127E+16</v>
+      </c>
+      <c r="BG3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6371639474729699E+17</v>
+      </c>
+      <c r="BH3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2184046477240301E+17</v>
+      </c>
+      <c r="BI3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.18927239492008E+17</v>
+      </c>
+      <c r="BJ3" s="3">
+        <f t="shared" si="0"/>
+        <v>436872451432036</v>
+      </c>
+      <c r="BK3" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8588659286111706E+17</v>
+      </c>
+      <c r="BL3" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3112980297540102E+17</v>
+      </c>
+      <c r="BM3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.41232317681696E+16</v>
+      </c>
+      <c r="BN3" s="3">
         <f t="shared" ref="BN3:BZ3" si="1">POWER(BN1-BN2, 2)</f>
-        <v>3.0961246691501998E+18</v>
-      </c>
-      <c r="BO3">
+        <v>7.1865578823147597E+17</v>
+      </c>
+      <c r="BO3" s="3">
         <f t="shared" si="1"/>
-        <v>1.1841650433853499E+18</v>
-      </c>
-      <c r="BP3">
+        <v>4.0402670714042598E+17</v>
+      </c>
+      <c r="BP3" s="3">
         <f t="shared" si="1"/>
-        <v>1.2970519965965901E+17</v>
-      </c>
-      <c r="BQ3">
+        <v>5.84673986209076E+16</v>
+      </c>
+      <c r="BQ3" s="3">
         <f t="shared" si="1"/>
-        <v>2.8423820202088301E+17</v>
-      </c>
-      <c r="BR3">
+        <v>4512687526371600</v>
+      </c>
+      <c r="BR3" s="3">
         <f t="shared" si="1"/>
-        <v>3.7474789473356698E+17</v>
-      </c>
-      <c r="BS3">
+        <v>6.65136871269306E+16</v>
+      </c>
+      <c r="BS3" s="3">
         <f t="shared" si="1"/>
-        <v>1.36663346259457E+18</v>
-      </c>
-      <c r="BT3">
+        <v>9.0838068153260506E+17</v>
+      </c>
+      <c r="BT3" s="3">
         <f t="shared" si="1"/>
-        <v>2.69648794348985E+16</v>
-      </c>
-      <c r="BU3">
+        <v>1.6520574225146501E+18</v>
+      </c>
+      <c r="BU3" s="3">
         <f t="shared" si="1"/>
-        <v>1.56295737596595E+18</v>
-      </c>
-      <c r="BV3">
+        <v>1.27712027813923E+18</v>
+      </c>
+      <c r="BV3" s="3">
         <f t="shared" si="1"/>
-        <v>1.4998013030133901E+18</v>
-      </c>
-      <c r="BW3">
+        <v>2.1214181331228E+17</v>
+      </c>
+      <c r="BW3" s="3">
         <f t="shared" si="1"/>
-        <v>1.6809568576749399E+18</v>
-      </c>
-      <c r="BX3">
+        <v>6.0126285510997904E+16</v>
+      </c>
+      <c r="BX3" s="3">
         <f t="shared" si="1"/>
-        <v>5.5206310223006003E+17</v>
-      </c>
-      <c r="BY3">
+        <v>9.6968390070448499E+17</v>
+      </c>
+      <c r="BY3" s="3">
         <f t="shared" si="1"/>
-        <v>2.6920143526153001E+18</v>
-      </c>
-      <c r="BZ3">
+        <v>4.1702356336556304E+16</v>
+      </c>
+      <c r="BZ3" s="3">
         <f t="shared" si="1"/>
-        <v>2.8933510248358E+16</v>
-      </c>
-      <c r="CA3">
+        <v>2.9817405937130199E+18</v>
+      </c>
+      <c r="CA3" s="3">
         <f>SUM(A3:BZ3)</f>
-        <v>6.7952506405775901E+19</v>
+        <v>4.9056376758319202E+19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CA4">
+        <v>4.6238419011048497E+19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CA5" s="3">
+        <f>CA3-CA4</f>
+        <v>2.8179577472707098E+18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/test1.xlsx
+++ b/Docs/test1.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ref</t>
   </si>
@@ -44,12 +45,6 @@
   <si>
     <t>50000 data set</t>
   </si>
-  <si>
-    <t>100000 Data Set</t>
-  </si>
-  <si>
-    <t>FPGA</t>
-  </si>
 </sst>
 </file>
 
@@ -68,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,18 +72,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,11 +85,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,8 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,94 +1226,6 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>62630</v>
-      </c>
-      <c r="B46" s="8">
-        <v>90063</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>55621</v>
-      </c>
-      <c r="B47" s="7">
-        <v>62630</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>73861</v>
-      </c>
-      <c r="B48" s="7">
-        <v>55621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>62340</v>
-      </c>
-      <c r="B49" s="7">
-        <v>73861</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>58463</v>
-      </c>
-      <c r="B50" s="7">
-        <v>62340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>42731</v>
-      </c>
-      <c r="B51" s="7">
-        <v>58463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>20486</v>
-      </c>
-      <c r="B52" s="8">
-        <v>84712</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>4059</v>
-      </c>
-      <c r="B53" s="7">
-        <v>20486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>10151</v>
-      </c>
-      <c r="B54" s="8">
-        <v>96659</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>92395</v>
-      </c>
-      <c r="B55" s="7">
-        <v>4059</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1321,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="CA5" sqref="CA5"/>
     </sheetView>
   </sheetViews>
@@ -2196,4 +2111,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>B3-A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C42" si="0">B4-A4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>19</v>
+      </c>
+      <c r="B35" s="7">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>22</v>
+      </c>
+      <c r="B37" s="7">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>14</v>
+      </c>
+      <c r="B40" s="7">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>29</v>
+      </c>
+      <c r="B41" s="7">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>9</v>
+      </c>
+      <c r="B42" s="7">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>